--- a/va_facility_data_2025-02-20/Lieutenant Colonel Clement C. Van Wagoner Department of Veterans Affairs Clinic - Facility Data.xlsx"; filename*=UTF-8''Lieutenant%20Colonel%20Clement%20C.%20Van%20Wagoner%20Department%20of%20Veterans%20Affairs%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lieutenant Colonel Clement C. Van Wagoner Department of Veterans Affairs Clinic - Facility Data.xlsx"; filename*=UTF-8''Lieutenant%20Colonel%20Clement%20C.%20Van%20Wagoner%20Department%20of%20Veterans%20Affairs%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R84f4465bc17f4b23b40183f9932f7a99"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R04c4fba8f84946b585858ce9a7b73b7e"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd5d272aaf60043c7bd74ffaac634e4b5"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rafed9a4b68214818a9fccfbb3c4af03a"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R85517139cc3e4ea2a139eea4bfa1fcfe"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rff6b25168c754052bffd3dce926e9326"/>
   </x:sheets>
 </x:workbook>
 </file>
